--- a/3_Implementation/Data.xlsx
+++ b/3_Implementation/Data.xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -307,6 +307,114 @@
     <t>Sangam Patel</t>
   </si>
   <si>
+    <t>In Time</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
+    <t>BUS NUM</t>
+  </si>
+  <si>
+    <t>Attendence</t>
+  </si>
+  <si>
+    <t>Self decleration</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Not submit</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Unmarried</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>pawan.kumar@ltts.com</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -338,114 +446,6 @@
   </si>
   <si>
     <t>B+</t>
-  </si>
-  <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t>Out Time</t>
-  </si>
-  <si>
-    <t>BUS NUM</t>
-  </si>
-  <si>
-    <t>Attendence</t>
-  </si>
-  <si>
-    <t>Self decleration</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Not submit</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Unmarried</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>KA</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>pawan.kumar@ltts.com</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -3264,22 +3264,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3305,10 +3305,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J2" s="12">
         <v>96</v>
@@ -3340,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J3" s="12">
         <v>97</v>
@@ -3369,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J4" s="12">
         <v>96</v>
@@ -3404,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J5" s="12">
         <v>97</v>
@@ -3433,10 +3433,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J6" s="12">
         <v>96</v>
@@ -3468,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J7" s="12">
         <v>95</v>
@@ -3497,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J8" s="12">
         <v>97</v>
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J9" s="12">
         <v>95</v>
@@ -3561,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J10" s="12">
         <v>97</v>
@@ -3596,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J11" s="12">
         <v>97</v>
@@ -3625,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J12" s="12">
         <v>98</v>
@@ -3660,7 +3660,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J13" s="12">
         <v>96</v>
@@ -3689,10 +3689,10 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J14" s="12">
         <v>97</v>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J15" s="12">
         <v>98</v>
@@ -3753,10 +3753,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J16" s="12">
         <v>98</v>
@@ -3788,7 +3788,7 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J17" s="12">
         <v>98</v>
@@ -3820,7 +3820,7 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J18" s="12">
         <v>97</v>
@@ -3849,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J19" s="12">
         <v>97</v>
@@ -3881,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J20" s="12">
         <v>96</v>
@@ -3916,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J21" s="12">
         <v>96</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J22" s="12">
         <v>98</v>
@@ -3980,7 +3980,7 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J23" s="12">
         <v>96</v>
@@ -4012,7 +4012,7 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J24" s="12">
         <v>96</v>
@@ -4044,7 +4044,7 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J25" s="12">
         <v>98</v>
@@ -4073,10 +4073,10 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J26" s="12">
         <v>96</v>
@@ -4108,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J27" s="12">
         <v>96</v>
@@ -4137,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J28" s="12">
         <v>98</v>
@@ -4172,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J29" s="12">
         <v>98</v>
@@ -4201,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J30" s="12">
         <v>98</v>
@@ -4233,10 +4233,10 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J31" s="12">
         <v>96</v>
@@ -4265,10 +4265,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J32" s="12">
         <v>96</v>
@@ -4325,22 +4325,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -4361,16 +4361,16 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G2" s="12">
         <v>1998</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -4393,19 +4393,19 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G3" s="12">
         <v>1998</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4425,16 +4425,16 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G4" s="12">
         <v>1998</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -4457,19 +4457,19 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G5" s="12">
         <v>1998</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4489,19 +4489,19 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G6" s="12">
         <v>1998</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
         <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4521,16 +4521,16 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G7" s="12">
         <v>1998</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
@@ -4553,19 +4553,19 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G8" s="12">
         <v>1998</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
         <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4585,19 +4585,19 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G9" s="12">
         <v>1998</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4617,16 +4617,16 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G10" s="12">
         <v>1998</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -4649,19 +4649,19 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G11" s="12">
         <v>1998</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4681,19 +4681,19 @@
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G12" s="12">
         <v>1998</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4713,13 +4713,13 @@
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G13" s="12">
         <v>1998</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
         <v>88</v>
@@ -4745,19 +4745,19 @@
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G14" s="12">
         <v>1998</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4777,13 +4777,13 @@
         <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G15" s="12">
         <v>1998</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -4809,19 +4809,19 @@
         <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G16" s="12">
         <v>1998</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4841,19 +4841,19 @@
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G17" s="12">
         <v>1998</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4873,19 +4873,19 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G18" s="12">
         <v>1998</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
         <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4905,16 +4905,16 @@
         <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G19" s="12">
         <v>1998</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -4937,16 +4937,16 @@
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G20" s="12">
         <v>1998</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -4969,16 +4969,16 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G21" s="12">
         <v>1998</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
@@ -5001,19 +5001,19 @@
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G22" s="12">
         <v>1998</v>
       </c>
       <c r="H22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
         <v>122</v>
-      </c>
-      <c r="I22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5033,19 +5033,19 @@
         <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G23" s="12">
         <v>1998</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5065,19 +5065,19 @@
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G24" s="12">
         <v>1998</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
         <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5091,22 +5091,22 @@
         <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G25" s="12">
         <v>1998</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
@@ -5129,19 +5129,19 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G26" s="12">
         <v>1998</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5161,19 +5161,19 @@
         <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G27" s="12">
         <v>1998</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5193,19 +5193,19 @@
         <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G28" s="12">
         <v>1998</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5225,16 +5225,16 @@
         <v>22</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G29" s="12">
         <v>1998</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -5257,19 +5257,19 @@
         <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G30" s="12">
         <v>1998</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
         <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5289,19 +5289,19 @@
         <v>22</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G31" s="12">
         <v>1998</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I31" t="s">
         <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5353,22 +5353,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,13 +5388,13 @@
         <v>10000</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I2" s="12">
         <v>1</v>
@@ -5420,13 +5420,13 @@
         <v>10000</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I3" s="12">
         <v>2</v>
@@ -5452,13 +5452,13 @@
         <v>10000</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I4" s="12">
         <v>3</v>
@@ -5484,13 +5484,13 @@
         <v>10000</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I5" s="12">
         <v>4</v>
@@ -5516,13 +5516,13 @@
         <v>10000</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I6" s="12">
         <v>5</v>
@@ -5548,13 +5548,13 @@
         <v>10000</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I7" s="12">
         <v>6</v>
@@ -5580,13 +5580,13 @@
         <v>10000</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I8" s="12">
         <v>7</v>
@@ -5612,13 +5612,13 @@
         <v>10000</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I9" s="12">
         <v>8</v>
@@ -5644,13 +5644,13 @@
         <v>10000</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I10" s="12">
         <v>9</v>
@@ -5676,13 +5676,13 @@
         <v>10000</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I11" s="12">
         <v>10</v>
@@ -5708,13 +5708,13 @@
         <v>10000</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I12" s="12">
         <v>11</v>
@@ -5740,13 +5740,13 @@
         <v>10000</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I13" s="12">
         <v>12</v>
@@ -5772,13 +5772,13 @@
         <v>10000</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I14" s="12">
         <v>13</v>
@@ -5804,13 +5804,13 @@
         <v>10000</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I15" s="12">
         <v>14</v>
@@ -5836,13 +5836,13 @@
         <v>10000</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I16" s="12">
         <v>15</v>
@@ -5868,13 +5868,13 @@
         <v>10000</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I17" s="12">
         <v>16</v>
@@ -5900,13 +5900,13 @@
         <v>10000</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I18" s="12">
         <v>17</v>
@@ -5932,13 +5932,13 @@
         <v>10000</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I19" s="12">
         <v>18</v>
@@ -5964,13 +5964,13 @@
         <v>10000</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I20" s="12">
         <v>19</v>
@@ -5996,13 +5996,13 @@
         <v>10000</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I21" s="12">
         <v>20</v>
@@ -6028,13 +6028,13 @@
         <v>10000</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I22" s="12">
         <v>21</v>
@@ -6060,13 +6060,13 @@
         <v>10000</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I23" s="12">
         <v>22</v>
@@ -6092,13 +6092,13 @@
         <v>10000</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I24" s="12">
         <v>23</v>
@@ -6124,13 +6124,13 @@
         <v>10000</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I25" s="12">
         <v>24</v>
@@ -6156,13 +6156,13 @@
         <v>10000</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I26" s="12">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10000</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I27" s="12">
         <v>26</v>
@@ -6220,13 +6220,13 @@
         <v>10000</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I28" s="12">
         <v>27</v>
@@ -6252,13 +6252,13 @@
         <v>10000</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I29" s="12">
         <v>28</v>
@@ -6284,13 +6284,13 @@
         <v>10000</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I30" s="12">
         <v>29</v>
@@ -6316,13 +6316,13 @@
         <v>10000</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="I31" s="12">
         <v>30</v>
@@ -6348,13 +6348,13 @@
         <v>10000</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I32" s="12">
         <v>31</v>

--- a/3_Implementation/Data.xlsx
+++ b/3_Implementation/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="9150" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="9150" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
